--- a/mcm/tests/test_data/bad_xlsx_date_value.xlsx
+++ b/mcm/tests/test_data/bad_xlsx_date_value.xlsx
@@ -104,28 +104,28 @@
     <t>Complete Energy Data</t>
   </si>
   <si>
-    <t>AES_003</t>
-  </si>
-  <si>
-    <t>Jim and Mary's Flowers</t>
-  </si>
-  <si>
-    <t>Discover Downtown Middlesboro</t>
-  </si>
-  <si>
-    <t>2020 Cumberland Ave</t>
-  </si>
-  <si>
-    <t>Middlesboro</t>
-  </si>
-  <si>
-    <t>Bell</t>
-  </si>
-  <si>
-    <t>KY</t>
-  </si>
-  <si>
-    <t>069-43-00-013</t>
+    <t>EEE</t>
+  </si>
+  <si>
+    <t>Jim's Auto Shop</t>
+  </si>
+  <si>
+    <t>Discover Downtown Happy</t>
+  </si>
+  <si>
+    <t>111 Scenic Ave</t>
+  </si>
+  <si>
+    <t>Energy Town</t>
+  </si>
+  <si>
+    <t>Fry</t>
+  </si>
+  <si>
+    <t>OR</t>
+  </si>
+  <si>
+    <t>123-45-65-789</t>
   </si>
   <si>
     <t>Al and Bob</t>
@@ -378,7 +378,7 @@
   <dimension ref="A1:AC2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AA2" activeCellId="0" sqref="AA2"/>
+      <selection pane="topLeft" activeCell="L6" activeCellId="0" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -386,7 +386,7 @@
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.0051020408163"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.7091836734694"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="14.0051020408163"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="24.5663265306122"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="26.8724489795918"/>
     <col collapsed="false" hidden="false" max="8" min="5" style="0" width="14.0051020408163"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="0" width="18.7091836734694"/>
     <col collapsed="false" hidden="false" max="12" min="10" style="0" width="14.0051020408163"/>
@@ -509,7 +509,7 @@
         <v>35</v>
       </c>
       <c r="H2" s="3" t="n">
-        <v>40965</v>
+        <v>97215</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>36</v>
@@ -575,7 +575,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="L2" r:id="rId1" display="al@example"/>
+    <hyperlink ref="L2" r:id="rId1" display="al@example.com"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
